--- a/pred_ohlcv/54_21/2020-01-22 BSV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 BSV ohlcv.xlsx
@@ -4604,7 +4604,7 @@
         <v>-780.6966583900014</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-487.1221583900014</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-754.0859586700014</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-625.3509586700014</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-625.3509586700014</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-618.4642586700014</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-665.6175586100014</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-665.6175586100014</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-686.9651577000014</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-676.7148577000014</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-642.8676451700014</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-646.0777040200014</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-729.4493040200014</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-729.4493040200014</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-468.9475759300014</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-429.5296759300014</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-262.9644759300014</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-344.8599335800014</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-348.9539335800014</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-345.0743324000014</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-330.8615324000014</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-256.9082064500014</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-257.2787064500014</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-320.8577064500014</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-228.0976205000014</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-260.7595196500014</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-251.0997196500014</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-367.8698196500014</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-502.2276196500014</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-502.7772196500014</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-586.9793196500013</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-586.9793196500013</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-606.5692196500013</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-656.0609196500013</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-704.6087621900014</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-679.0581621900013</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-762.9594973800014</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-784.6002667400014</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-759.4025112800011</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-723.1526100000011</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-627.6213109400011</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-627.6213109400011</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-585.7762103400011</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-604.986409200001</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-645.239609200001</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-788.6162092000011</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-788.6162092000011</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-808.3041092000011</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-808.3041092000011</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-735.5012092000011</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-585.930195490001</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-587.054595490001</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-720.669695490001</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-649.8042283800009</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-674.633761490001</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-718.681461490001</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-718.681461490001</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-718.681461490001</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-667.610227210001</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-683.420827210001</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-656.422941780001</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-656.422941780001</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-419.059627210001</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-457.506570440001</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-457.506570440001</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-473.003870440001</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-571.0124704400009</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-519.7470704400009</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-519.7470704400009</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-454.0413704400009</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-215.2006704400009</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-102.4346692100009</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-279.1169692100009</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-175.894472830001</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-329.8656753000009</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-177.4001781200009</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-253.5220781200009</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-189.4847781200009</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-199.4847781200009</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-270.6882781200009</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-240.5573401500009</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-240.5573401500009</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-309.3136401500009</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-551.037540150001</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-531.0313401500009</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-507.0322401500009</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-481.0968401500009</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-384.7744401500009</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-424.6940401500009</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-402.5115401500009</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-402.5115401500009</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-426.3734401500009</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-403.6846829000009</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-262.5972829000009</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-374.8087829000009</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-0.04674848000087195</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>36.42145151999913</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>177.1731515199991</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>361.2202490799991</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-500.0255767600007</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-4488.194560090001</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-4720.18651001</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-4468.179910010001</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-4235.72021001</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-4095.98151001</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-4152.921410010001</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-4022.917668250001</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-4096.53416825</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-3888.47961001</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-4054.76550942</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-4054.76550942</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-3360.76917702</v>
       </c>
       <c r="H526">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-3350.255024860001</v>
       </c>
       <c r="H527">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-3244.98132486</v>
       </c>
       <c r="H528">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-3326.333724860001</v>
       </c>
       <c r="H529">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-3409.351024860001</v>
       </c>
       <c r="H530">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-3499.519849400001</v>
       </c>
       <c r="H531">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-3499.519849400001</v>
       </c>
       <c r="H532">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-3485.4449494</v>
       </c>
       <c r="H533">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-3485.4449494</v>
       </c>
       <c r="H534">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-3409.0172494</v>
       </c>
       <c r="H535">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-3414.31135155</v>
       </c>
       <c r="H536">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-3386.81945155</v>
       </c>
       <c r="H537">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-3331.98825155</v>
       </c>
       <c r="H538">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-3310.04385388</v>
       </c>
       <c r="H539">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-3310.04385388</v>
       </c>
       <c r="H540">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-3310.04385388</v>
       </c>
       <c r="H541">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-3310.04385388</v>
       </c>
       <c r="H542">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-3205.820453880001</v>
       </c>
       <c r="H543">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-2982.474073960001</v>
       </c>
       <c r="H544">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-2920.51884698</v>
       </c>
       <c r="H547">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-2702.33734698</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-2339.66342765</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-2184.39879423</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-2344.27063886</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-2322.70243752</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-2390.75150994</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-2390.75150994</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-2408.83280994</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-2443.72030994</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-2394.68590994</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-2574.37473258</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-2580.67233258</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-2600.21413258</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-2592.21513258</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-2495.16253258</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-2219.99173526</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-2219.99173526</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-2219.99173526</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-2181.98603526</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-2239.59503526</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-2026.55093526</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-1957.54633526</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-2057.47143526</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-1603.17230609</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-1779.01430609</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-1830.52550609</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-1915.35370609</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-2036.98211006</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-1988.00669558</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-3657.542763969999</v>
       </c>
       <c r="H681">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-3658.703265419999</v>
       </c>
       <c r="H685">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-3609.915065419999</v>
       </c>
       <c r="H686">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-3588.955065419999</v>
       </c>
       <c r="H687">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-3564.700165419999</v>
       </c>
       <c r="H688">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-3564.700165419999</v>
       </c>
       <c r="H689">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-3564.700165419999</v>
       </c>
       <c r="H691">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-3531.501065419999</v>
       </c>
       <c r="H692">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-3531.501065419999</v>
       </c>
       <c r="H693">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-3531.501065419999</v>
       </c>
       <c r="H694">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-3521.596665419999</v>
       </c>
       <c r="H695">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-3515.596665419999</v>
       </c>
       <c r="H696">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-3525.833365419999</v>
       </c>
       <c r="H699">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-3459.540195079999</v>
       </c>
       <c r="H700">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-3451.555195079999</v>
       </c>
       <c r="H701">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-3458.802695079999</v>
       </c>
       <c r="H702">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-3437.615795079999</v>
       </c>
       <c r="H703">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-3464.892895079999</v>
       </c>
       <c r="H704">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-3491.514395079999</v>
       </c>
       <c r="H706">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-3491.514395079999</v>
       </c>
       <c r="H707">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-3522.190095079999</v>
       </c>
       <c r="H708">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-3521.557695079999</v>
       </c>
       <c r="H709">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-3521.557695079999</v>
       </c>
       <c r="H710">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-3528.557695079999</v>
       </c>
       <c r="H711">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-3508.977795079998</v>
       </c>
       <c r="H712">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-3508.877795079999</v>
       </c>
       <c r="H713">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-3520.507895079998</v>
       </c>
       <c r="H714">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-3488.461195079999</v>
       </c>
       <c r="H715">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-3356.447495079999</v>
       </c>
       <c r="H716">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-3368.197095079999</v>
       </c>
       <c r="H718">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-3340.421365419999</v>
       </c>
       <c r="H719">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-3318.789365419999</v>
       </c>
       <c r="H720">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-3308.865765419999</v>
       </c>
       <c r="H722">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-3314.569065419999</v>
       </c>
       <c r="H723">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-3314.566765419999</v>
       </c>
       <c r="H724">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-3223.443365419999</v>
       </c>
       <c r="H725">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-3214.910365419999</v>
       </c>
       <c r="H726">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-3106.193365419999</v>
       </c>
       <c r="H727">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-2795.881236709999</v>
       </c>
       <c r="H762">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-2802.073936709999</v>
       </c>
       <c r="H764">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-2850.821427079998</v>
       </c>
       <c r="H800">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-2829.325424189999</v>
       </c>
       <c r="H819">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-2841.470024189999</v>
       </c>
       <c r="H820">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-2849.911424189999</v>
       </c>
       <c r="H821">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-2880.276924189999</v>
       </c>
       <c r="H822">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-2868.895524189999</v>
       </c>
       <c r="H823">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-2904.594124189999</v>
       </c>
       <c r="H824">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-3098.744924189999</v>
       </c>
       <c r="H825">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-3135.795339969999</v>
       </c>
       <c r="H827">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-3138.137939969999</v>
       </c>
       <c r="H828">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-3138.137939969999</v>
       </c>
       <c r="H829">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-3138.137939969999</v>
       </c>
       <c r="H830">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-3605.458239969999</v>
       </c>
       <c r="H831">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-3482.991539969998</v>
       </c>
       <c r="H839">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-3499.489839969999</v>
       </c>
       <c r="H840">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-3478.183339969999</v>
       </c>
       <c r="H841">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-3411.420039969998</v>
       </c>
       <c r="H842">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-3486.720239969999</v>
       </c>
       <c r="H843">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-3486.720239969999</v>
       </c>
       <c r="H844">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-3527.817139969999</v>
       </c>
       <c r="H845">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-3527.817139969999</v>
       </c>
       <c r="H846">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-3450.949339969999</v>
       </c>
       <c r="H847">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-3429.416139969999</v>
       </c>
       <c r="H848">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-3416.551039969999</v>
       </c>
       <c r="H849">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-3416.551039969999</v>
       </c>
       <c r="H850">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-3416.651039969999</v>
       </c>
       <c r="H851">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-3416.651039969999</v>
       </c>
       <c r="H852">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-3416.651039969999</v>
       </c>
       <c r="H853">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-3425.240139969999</v>
       </c>
       <c r="H854">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-3412.097952849999</v>
       </c>
       <c r="H855">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-3271.490539969999</v>
       </c>
       <c r="H856">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-3358.134547209999</v>
       </c>
       <c r="H857">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-3253.350870209999</v>
       </c>
       <c r="H864">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-3202.093270209999</v>
       </c>
       <c r="H865">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-2840.87582705</v>
       </c>
       <c r="H883">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-2816.40282705</v>
       </c>
       <c r="H884">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-2821.80112705</v>
       </c>
       <c r="H885">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-2699.93732705</v>
       </c>
       <c r="H886">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-2677.96272705</v>
       </c>
       <c r="H887">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-2684.44262705</v>
       </c>
       <c r="H888">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-3070.45718047</v>
       </c>
       <c r="H912">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-3043.44658047</v>
       </c>
       <c r="H913">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-3064.099003699999</v>
       </c>
       <c r="H945">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>-3028.5081037</v>
       </c>
       <c r="H948">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-1270.464683779999</v>
       </c>
       <c r="H982">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-1136.414826869999</v>
       </c>
       <c r="H983">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>-1173.193700929999</v>
       </c>
       <c r="H984">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>-1064.786607209999</v>
       </c>
       <c r="H985">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>-916.9443782899993</v>
       </c>
       <c r="H986">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-959.5203788499994</v>
       </c>
       <c r="H987">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-930.8373116399994</v>
       </c>
       <c r="H988">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-1050.817311639999</v>
       </c>
       <c r="H989">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-1050.817311639999</v>
       </c>
       <c r="H990">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-1079.789801959999</v>
       </c>
       <c r="H991">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-1148.225491399999</v>
       </c>
       <c r="H992">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>-1113.310691399999</v>
       </c>
       <c r="H993">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-1158.703991399999</v>
       </c>
       <c r="H994">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-1109.089891399999</v>
       </c>
       <c r="H995">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-1028.681128549999</v>
       </c>
       <c r="H996">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-960.8748684999994</v>
       </c>
       <c r="H997">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-651.7647175999994</v>
       </c>
       <c r="H998">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-199.3320503099994</v>
       </c>
       <c r="H999">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>-395.8082016299994</v>
       </c>
       <c r="H1000">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>-145.2827016299994</v>
       </c>
       <c r="H1001">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>234.4988483800006</v>
       </c>
       <c r="H1002">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>971.6666158100006</v>
       </c>
       <c r="H1003">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>454.2888785300006</v>
       </c>
       <c r="H1004">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>694.8257408800006</v>
       </c>
       <c r="H1005">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>875.5569802700006</v>
       </c>
       <c r="H1006">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>1204.201649930001</v>
       </c>
       <c r="H1007">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>1471.466711180001</v>
       </c>
       <c r="H1008">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>1355.502345360001</v>
       </c>
       <c r="H1009">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>1288.504945360001</v>
       </c>
       <c r="H1010">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>1315.06706894</v>
       </c>
       <c r="H1028">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>1396.31006894</v>
       </c>
       <c r="H1029">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>1208.65726894</v>
       </c>
       <c r="H1030">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>1465.88616888</v>
       </c>
       <c r="H1031">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>1511.87186888</v>
       </c>
       <c r="H1032">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>1511.87186888</v>
       </c>
       <c r="H1033">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>1591.71596888</v>
       </c>
       <c r="H1034">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>1144.33020741</v>
       </c>
       <c r="H1043">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>777.8421074099997</v>
       </c>
       <c r="H1044">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>801.5399074099997</v>
       </c>
       <c r="H1045">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -27588,7 +27588,7 @@
         <v>1003.79010741</v>
       </c>
       <c r="H1046">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1047" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>1097.87985297</v>
       </c>
       <c r="H1047">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -29772,7 +29772,7 @@
         <v>5493.607908</v>
       </c>
       <c r="H1130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1131" spans="1:8">
@@ -29798,7 +29798,7 @@
         <v>5302.3085026</v>
       </c>
       <c r="H1131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1132" spans="1:8">
@@ -29824,7 +29824,7 @@
         <v>5570.4277026</v>
       </c>
       <c r="H1132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1133" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>5714.3608026</v>
       </c>
       <c r="H1133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -29876,7 +29876,7 @@
         <v>5233.81520506</v>
       </c>
       <c r="H1134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1135" spans="1:8">
@@ -29902,7 +29902,7 @@
         <v>4893.40192214</v>
       </c>
       <c r="H1135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1136" spans="1:8">
@@ -29928,7 +29928,7 @@
         <v>5065.32121884</v>
       </c>
       <c r="H1136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1137" spans="1:8">
@@ -29954,7 +29954,7 @@
         <v>5033.01651141</v>
       </c>
       <c r="H1137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1138" spans="1:8">
@@ -29980,7 +29980,7 @@
         <v>5202.52540422</v>
       </c>
       <c r="H1138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1139" spans="1:8">
@@ -30006,7 +30006,7 @@
         <v>5039.95170422</v>
       </c>
       <c r="H1139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1140" spans="1:8">
@@ -30032,7 +30032,7 @@
         <v>4940.98555552</v>
       </c>
       <c r="H1140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1141" spans="1:8">
@@ -30058,7 +30058,7 @@
         <v>4396.973673410001</v>
       </c>
       <c r="H1141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1142" spans="1:8">
@@ -30084,7 +30084,7 @@
         <v>4671.57657341</v>
       </c>
       <c r="H1142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1143" spans="1:8">
@@ -30110,7 +30110,7 @@
         <v>4430.386073410001</v>
       </c>
       <c r="H1143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1144" spans="1:8">
@@ -30136,7 +30136,7 @@
         <v>4486.04957341</v>
       </c>
       <c r="H1144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1145" spans="1:8">
@@ -30162,7 +30162,7 @@
         <v>4355.392873410001</v>
       </c>
       <c r="H1145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1146" spans="1:8">
@@ -30188,7 +30188,7 @@
         <v>4303.217073410001</v>
       </c>
       <c r="H1146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1147" spans="1:8">
@@ -30266,7 +30266,7 @@
         <v>4063.852661390001</v>
       </c>
       <c r="H1149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1150" spans="1:8">
@@ -30292,7 +30292,7 @@
         <v>3956.398951360001</v>
       </c>
       <c r="H1150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1151" spans="1:8">
@@ -30318,7 +30318,7 @@
         <v>4110.959879430001</v>
       </c>
       <c r="H1151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1152" spans="1:8">
@@ -30344,7 +30344,7 @@
         <v>3994.340779430001</v>
       </c>
       <c r="H1152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1153" spans="1:8">
@@ -30370,7 +30370,7 @@
         <v>3813.496979430001</v>
       </c>
       <c r="H1153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1154" spans="1:8">
@@ -30474,7 +30474,7 @@
         <v>4002.795280790001</v>
       </c>
       <c r="H1157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1158" spans="1:8">
@@ -30500,7 +30500,7 @@
         <v>4202.261880790001</v>
       </c>
       <c r="H1158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1159" spans="1:8">
@@ -30526,7 +30526,7 @@
         <v>4027.628033460001</v>
       </c>
       <c r="H1159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1160" spans="1:8">
@@ -30552,7 +30552,7 @@
         <v>4027.628033460001</v>
       </c>
       <c r="H1160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1161" spans="1:8">
@@ -30578,7 +30578,7 @@
         <v>3567.203005870001</v>
       </c>
       <c r="H1161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1162" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>3564.342247850001</v>
       </c>
       <c r="H1165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30708,7 +30708,7 @@
         <v>3553.174147850001</v>
       </c>
       <c r="H1166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1167" spans="1:8">
@@ -30734,7 +30734,7 @@
         <v>3535.828047850001</v>
       </c>
       <c r="H1167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1168" spans="1:8">
@@ -30760,7 +30760,7 @@
         <v>3535.828047850001</v>
       </c>
       <c r="H1168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1169" spans="1:8">
@@ -31176,7 +31176,7 @@
         <v>4325.648983840002</v>
       </c>
       <c r="H1184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1185" spans="1:8">
@@ -31228,7 +31228,7 @@
         <v>4367.905183840002</v>
       </c>
       <c r="H1186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1187" spans="1:8">
@@ -31254,7 +31254,7 @@
         <v>3934.091076970002</v>
       </c>
       <c r="H1187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1188" spans="1:8">
@@ -31280,7 +31280,7 @@
         <v>4025.125176970002</v>
       </c>
       <c r="H1188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1189" spans="1:8">
@@ -31306,7 +31306,7 @@
         <v>3952.589596710001</v>
       </c>
       <c r="H1189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1190" spans="1:8">
@@ -31332,7 +31332,7 @@
         <v>3553.904991130001</v>
       </c>
       <c r="H1190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1191" spans="1:8">
@@ -31358,7 +31358,7 @@
         <v>3391.182492220001</v>
       </c>
       <c r="H1191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1192" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-22 BSV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 BSV ohlcv.xlsx
@@ -4604,7 +4604,7 @@
         <v>-780.6966583900014</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-487.1221583900014</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-754.0859586700014</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-625.3509586700014</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-625.3509586700014</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-618.4642586700014</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-665.6175586100014</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-665.6175586100014</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-686.9651577000014</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-676.7148577000014</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-642.8676451700014</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-646.0777040200014</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-729.4493040200014</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-729.4493040200014</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-468.9475759300014</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-429.5296759300014</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-262.9644759300014</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-344.8599335800014</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-348.9539335800014</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-345.0743324000014</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-330.8615324000014</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-256.9082064500014</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-257.2787064500014</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-320.8577064500014</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-228.0976205000014</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-260.7595196500014</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-251.0997196500014</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-367.8698196500014</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-502.2276196500014</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-502.7772196500014</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-586.9793196500013</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-586.9793196500013</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-606.5692196500013</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-656.0609196500013</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-704.6087621900014</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-679.0581621900013</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-762.9594973800014</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-784.6002667400014</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-759.4025112800011</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-723.1526100000011</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-627.6213109400011</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-627.6213109400011</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-585.7762103400011</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-604.986409200001</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-645.239609200001</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-788.6162092000011</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-788.6162092000011</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-808.3041092000011</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-808.3041092000011</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-735.5012092000011</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-585.930195490001</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-587.054595490001</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-720.669695490001</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-649.8042283800009</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-674.633761490001</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-718.681461490001</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-718.681461490001</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-718.681461490001</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-667.610227210001</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-683.420827210001</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-656.422941780001</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-656.422941780001</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-419.059627210001</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-457.506570440001</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-457.506570440001</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-473.003870440001</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-571.0124704400009</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-519.7470704400009</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-519.7470704400009</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-454.0413704400009</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-215.2006704400009</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-102.4346692100009</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-279.1169692100009</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-175.894472830001</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-329.8656753000009</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-177.4001781200009</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-253.5220781200009</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-189.4847781200009</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-199.4847781200009</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-270.6882781200009</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-240.5573401500009</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-240.5573401500009</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-309.3136401500009</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-551.037540150001</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-531.0313401500009</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-507.0322401500009</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-481.0968401500009</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-384.7744401500009</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-424.6940401500009</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-402.5115401500009</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-402.5115401500009</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-426.3734401500009</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-403.6846829000009</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-262.5972829000009</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-374.8087829000009</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-0.04674848000087195</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>36.42145151999913</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>177.1731515199991</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>361.2202490799991</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-500.0255767600007</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-4488.194560090001</v>
       </c>
       <c r="H474">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-4720.18651001</v>
       </c>
       <c r="H476">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-4468.179910010001</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-4235.72021001</v>
       </c>
       <c r="H478">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-4095.98151001</v>
       </c>
       <c r="H479">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-4152.921410010001</v>
       </c>
       <c r="H480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-4022.917668250001</v>
       </c>
       <c r="H481">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-4096.53416825</v>
       </c>
       <c r="H482">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-3888.47961001</v>
       </c>
       <c r="H484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-4054.76550942</v>
       </c>
       <c r="H485">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-4054.76550942</v>
       </c>
       <c r="H486">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-3797.25970067</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-3648.66140067</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-3592.29097527</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-3643.57797527</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-3596.17877527</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-3678.8800755</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-3747.3007755</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-3747.3007755</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-3654.9835755</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-3654.9835755</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-3432.982475060001</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-3332.43078665</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-3275.34688665</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-3355.01884459</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-3311.86697702</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-3360.76917702</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-3350.255024860001</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-3244.98132486</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-3326.333724860001</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-3409.351024860001</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-3499.519849400001</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-3499.519849400001</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-3485.4449494</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-3485.4449494</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-3409.0172494</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-3414.31135155</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-3386.81945155</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-3331.98825155</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-3310.04385388</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-3310.04385388</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-3310.04385388</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-3310.04385388</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-3205.820453880001</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-2982.474073960001</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-3020.191673960001</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-2999.43617396</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-2920.51884698</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-2904.15004698</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-2926.31264698</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-2878.651946980001</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-2702.33734698</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-2702.33734698</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-2595.75754698</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-2339.66342765</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-2184.39879423</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-2344.27063886</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-2322.70243752</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-2390.75150994</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-2390.75150994</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-2408.83280994</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-2443.72030994</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-2394.68590994</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-2574.37473258</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-2580.67233258</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-2600.21413258</v>
       </c>
       <c r="H583">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-2592.21513258</v>
       </c>
       <c r="H584">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-2495.16253258</v>
       </c>
       <c r="H585">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-2219.99173526</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-2219.99173526</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-2219.99173526</v>
       </c>
       <c r="H590">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-2181.98603526</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-2239.59503526</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-2026.55093526</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-1957.54633526</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-2057.47143526</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-1603.17230609</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-1779.01430609</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-1830.52550609</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-1915.35370609</v>
       </c>
       <c r="H599">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-2036.98211006</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-1988.00669558</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-3564.700165419999</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-3564.700165419999</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-3531.501065419999</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-3531.501065419999</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-3531.501065419999</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-3521.596665419999</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-3515.596665419999</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-3515.596665419999</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-3514.675865419999</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-3525.833365419999</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-3459.540195079999</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-3451.555195079999</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-3458.802695079999</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-3437.615795079999</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-3464.892895079999</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-3464.892895079999</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-3491.514395079999</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-3491.514395079999</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-3522.190095079999</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-3521.557695079999</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-3521.557695079999</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-3528.557695079999</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-3508.977795079998</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-3508.877795079999</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-3520.507895079998</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-3488.461195079999</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-3356.447495079999</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-3368.197095079999</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-3368.197095079999</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-3340.421365419999</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-3318.789365419999</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-3339.750865419999</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-3308.865765419999</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-3314.569065419999</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-3314.566765419999</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-3223.443365419999</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-3214.910365419999</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-3106.193365419999</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-2980.280065419999</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-2963.957865419999</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-2973.957865419999</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-2956.772565419999</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-2867.962765419999</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-2685.622965419998</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-3138.137939969999</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-3605.458239969999</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-3482.991539969998</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-3499.489839969999</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-3478.183339969999</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-3411.420039969998</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-3486.720239969999</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-3486.720239969999</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-3527.817139969999</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-3527.817139969999</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-3450.949339969999</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-3429.416139969999</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-3416.551039969999</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-3416.551039969999</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-3416.651039969999</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-3416.651039969999</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-3416.651039969999</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-3425.240139969999</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-3412.097952849999</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-3271.490539969999</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-3358.134547209999</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-3225.631347209999</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-3376.636847209999</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-3232.246073489999</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-3295.333772849999</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-3305.371871529999</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-3253.350870209999</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-3202.093270209999</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-2915.34853843</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-2879.37303843</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-2753.24422705</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-2779.90212705</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-2808.18202705</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-2768.01202705</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-2773.04572705</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-2840.87582705</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-2816.40282705</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-2821.80112705</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-2699.93732705</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-2677.96272705</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-2684.44262705</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-2685.44262705</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-2759.96262705</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-2759.96262705</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-3064.699803699999</v>
       </c>
       <c r="H946">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>-3064.1385037</v>
       </c>
       <c r="H947">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-1270.464683779999</v>
       </c>
       <c r="H982">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-1136.414826869999</v>
       </c>
       <c r="H983">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>-1173.193700929999</v>
       </c>
       <c r="H984">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>-1064.786607209999</v>
       </c>
       <c r="H985">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>-916.9443782899993</v>
       </c>
       <c r="H986">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-959.5203788499994</v>
       </c>
       <c r="H987">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-930.8373116399994</v>
       </c>
       <c r="H988">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-1050.817311639999</v>
       </c>
       <c r="H989">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-1050.817311639999</v>
       </c>
       <c r="H990">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-1079.789801959999</v>
       </c>
       <c r="H991">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-1148.225491399999</v>
       </c>
       <c r="H992">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>-1113.310691399999</v>
       </c>
       <c r="H993">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-1158.703991399999</v>
       </c>
       <c r="H994">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-1109.089891399999</v>
       </c>
       <c r="H995">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-1028.681128549999</v>
       </c>
       <c r="H996">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-960.8748684999994</v>
       </c>
       <c r="H997">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-651.7647175999994</v>
       </c>
       <c r="H998">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-199.3320503099994</v>
       </c>
       <c r="H999">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>-395.8082016299994</v>
       </c>
       <c r="H1000">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>-145.2827016299994</v>
       </c>
       <c r="H1001">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>234.4988483800006</v>
       </c>
       <c r="H1002">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>971.6666158100006</v>
       </c>
       <c r="H1003">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>454.2888785300006</v>
       </c>
       <c r="H1004">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>694.8257408800006</v>
       </c>
       <c r="H1005">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>875.5569802700006</v>
       </c>
       <c r="H1006">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>1204.201649930001</v>
       </c>
       <c r="H1007">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>1471.466711180001</v>
       </c>
       <c r="H1008">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>1355.502345360001</v>
       </c>
       <c r="H1009">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>1288.504945360001</v>
       </c>
       <c r="H1010">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>1315.06706894</v>
       </c>
       <c r="H1028">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>1396.31006894</v>
       </c>
       <c r="H1029">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>1208.65726894</v>
       </c>
       <c r="H1030">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>1465.88616888</v>
       </c>
       <c r="H1031">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>1511.87186888</v>
       </c>
       <c r="H1032">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>1511.87186888</v>
       </c>
       <c r="H1033">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>1591.71596888</v>
       </c>
       <c r="H1034">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>1144.33020741</v>
       </c>
       <c r="H1043">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>777.8421074099997</v>
       </c>
       <c r="H1044">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>801.5399074099997</v>
       </c>
       <c r="H1045">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -27588,7 +27588,7 @@
         <v>1003.79010741</v>
       </c>
       <c r="H1046">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1047" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>1097.87985297</v>
       </c>
       <c r="H1047">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -29174,7 +29174,7 @@
         <v>3714.221240509999</v>
       </c>
       <c r="H1107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1108" spans="1:8">
@@ -29200,7 +29200,7 @@
         <v>3955.351376699999</v>
       </c>
       <c r="H1108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1109" spans="1:8">
@@ -29252,7 +29252,7 @@
         <v>3629.115094739999</v>
       </c>
       <c r="H1110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1111" spans="1:8">
@@ -29278,7 +29278,7 @@
         <v>3534.628274609999</v>
       </c>
       <c r="H1111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1112" spans="1:8">
@@ -29694,7 +29694,7 @@
         <v>4117.62111691</v>
       </c>
       <c r="H1127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1128" spans="1:8">
@@ -29720,7 +29720,7 @@
         <v>4516.04501691</v>
       </c>
       <c r="H1128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1129" spans="1:8">
@@ -29746,7 +29746,7 @@
         <v>6198.17572329</v>
       </c>
       <c r="H1129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1130" spans="1:8">
@@ -29772,7 +29772,7 @@
         <v>5493.607908</v>
       </c>
       <c r="H1130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1131" spans="1:8">
@@ -29798,7 +29798,7 @@
         <v>5302.3085026</v>
       </c>
       <c r="H1131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1132" spans="1:8">
@@ -29824,7 +29824,7 @@
         <v>5570.4277026</v>
       </c>
       <c r="H1132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1133" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>5714.3608026</v>
       </c>
       <c r="H1133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -29876,7 +29876,7 @@
         <v>5233.81520506</v>
       </c>
       <c r="H1134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1135" spans="1:8">
@@ -29902,7 +29902,7 @@
         <v>4893.40192214</v>
       </c>
       <c r="H1135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1136" spans="1:8">
@@ -29928,7 +29928,7 @@
         <v>5065.32121884</v>
       </c>
       <c r="H1136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1137" spans="1:8">
@@ -29954,7 +29954,7 @@
         <v>5033.01651141</v>
       </c>
       <c r="H1137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1138" spans="1:8">
@@ -29980,7 +29980,7 @@
         <v>5202.52540422</v>
       </c>
       <c r="H1138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1139" spans="1:8">
@@ -30006,7 +30006,7 @@
         <v>5039.95170422</v>
       </c>
       <c r="H1139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1140" spans="1:8">
@@ -30032,7 +30032,7 @@
         <v>4940.98555552</v>
       </c>
       <c r="H1140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1141" spans="1:8">
@@ -30058,7 +30058,7 @@
         <v>4396.973673410001</v>
       </c>
       <c r="H1141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1142" spans="1:8">
@@ -30084,7 +30084,7 @@
         <v>4671.57657341</v>
       </c>
       <c r="H1142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1143" spans="1:8">
@@ -30110,7 +30110,7 @@
         <v>4430.386073410001</v>
       </c>
       <c r="H1143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1144" spans="1:8">
@@ -30136,7 +30136,7 @@
         <v>4486.04957341</v>
       </c>
       <c r="H1144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1145" spans="1:8">
@@ -30162,7 +30162,7 @@
         <v>4355.392873410001</v>
       </c>
       <c r="H1145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1146" spans="1:8">
@@ -30188,7 +30188,7 @@
         <v>4303.217073410001</v>
       </c>
       <c r="H1146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1147" spans="1:8">
@@ -30214,7 +30214,7 @@
         <v>4337.516873410001</v>
       </c>
       <c r="H1147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1148" spans="1:8">
@@ -30240,7 +30240,7 @@
         <v>4191.572773410001</v>
       </c>
       <c r="H1148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1149" spans="1:8">
@@ -30266,7 +30266,7 @@
         <v>4063.852661390001</v>
       </c>
       <c r="H1149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1150" spans="1:8">
@@ -30292,7 +30292,7 @@
         <v>3956.398951360001</v>
       </c>
       <c r="H1150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1151" spans="1:8">
@@ -30318,7 +30318,7 @@
         <v>4110.959879430001</v>
       </c>
       <c r="H1151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1152" spans="1:8">
@@ -30344,7 +30344,7 @@
         <v>3994.340779430001</v>
       </c>
       <c r="H1152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1153" spans="1:8">
@@ -30370,7 +30370,7 @@
         <v>3813.496979430001</v>
       </c>
       <c r="H1153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1154" spans="1:8">
@@ -30396,7 +30396,7 @@
         <v>3813.496979430001</v>
       </c>
       <c r="H1154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1155" spans="1:8">
@@ -30422,7 +30422,7 @@
         <v>3886.550279430001</v>
       </c>
       <c r="H1155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1156" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>4048.748380790001</v>
       </c>
       <c r="H1156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30474,7 +30474,7 @@
         <v>4002.795280790001</v>
       </c>
       <c r="H1157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1158" spans="1:8">
@@ -30500,7 +30500,7 @@
         <v>4202.261880790001</v>
       </c>
       <c r="H1158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1159" spans="1:8">
@@ -30526,7 +30526,7 @@
         <v>4027.628033460001</v>
       </c>
       <c r="H1159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1160" spans="1:8">
@@ -30552,7 +30552,7 @@
         <v>4027.628033460001</v>
       </c>
       <c r="H1160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1161" spans="1:8">
@@ -30578,7 +30578,7 @@
         <v>3567.203005870001</v>
       </c>
       <c r="H1161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1162" spans="1:8">
@@ -30604,7 +30604,7 @@
         <v>3409.187805870001</v>
       </c>
       <c r="H1162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1163" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>3564.342247850001</v>
       </c>
       <c r="H1165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30708,7 +30708,7 @@
         <v>3553.174147850001</v>
       </c>
       <c r="H1166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1167" spans="1:8">
@@ -30760,7 +30760,7 @@
         <v>3535.828047850001</v>
       </c>
       <c r="H1168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1169" spans="1:8">
@@ -31020,7 +31020,7 @@
         <v>4211.502826350001</v>
       </c>
       <c r="H1178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1179" spans="1:8">
@@ -31046,7 +31046,7 @@
         <v>3762.121196450001</v>
       </c>
       <c r="H1179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1180" spans="1:8">
@@ -31072,7 +31072,7 @@
         <v>3834.213796450001</v>
       </c>
       <c r="H1180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1181" spans="1:8">
@@ -31098,7 +31098,7 @@
         <v>4172.592096450001</v>
       </c>
       <c r="H1181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1182" spans="1:8">
@@ -31124,7 +31124,7 @@
         <v>4702.372112210001</v>
       </c>
       <c r="H1182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1183" spans="1:8">
@@ -31150,7 +31150,7 @@
         <v>4514.368418430002</v>
       </c>
       <c r="H1183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1184" spans="1:8">
@@ -31176,7 +31176,7 @@
         <v>4325.648983840002</v>
       </c>
       <c r="H1184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1185" spans="1:8">
@@ -31202,7 +31202,7 @@
         <v>4264.798183840002</v>
       </c>
       <c r="H1185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1186" spans="1:8">
@@ -31228,7 +31228,7 @@
         <v>4367.905183840002</v>
       </c>
       <c r="H1186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1187" spans="1:8">
@@ -31254,7 +31254,7 @@
         <v>3934.091076970002</v>
       </c>
       <c r="H1187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1188" spans="1:8">
@@ -31280,7 +31280,7 @@
         <v>4025.125176970002</v>
       </c>
       <c r="H1188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1189" spans="1:8">
@@ -31306,7 +31306,7 @@
         <v>3952.589596710001</v>
       </c>
       <c r="H1189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1190" spans="1:8">
@@ -31332,7 +31332,7 @@
         <v>3553.904991130001</v>
       </c>
       <c r="H1190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1191" spans="1:8">
@@ -31358,7 +31358,7 @@
         <v>3391.182492220001</v>
       </c>
       <c r="H1191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1192" spans="1:8">
@@ -31384,7 +31384,7 @@
         <v>3391.182492220001</v>
       </c>
       <c r="H1192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1193" spans="1:8">
@@ -31410,7 +31410,7 @@
         <v>3304.865841010001</v>
       </c>
       <c r="H1193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1194" spans="1:8">
@@ -31436,7 +31436,7 @@
         <v>2923.880741010001</v>
       </c>
       <c r="H1194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1195" spans="1:8">
@@ -31462,7 +31462,7 @@
         <v>2947.496841010001</v>
       </c>
       <c r="H1195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>2861.895241010001</v>
       </c>
       <c r="H1196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>2861.895241010001</v>
       </c>
       <c r="H1197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31540,7 +31540,7 @@
         <v>3020.535819850002</v>
       </c>
       <c r="H1198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1199" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>2928.097720800002</v>
       </c>
       <c r="H1199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31592,7 +31592,7 @@
         <v>2928.097720800002</v>
       </c>
       <c r="H1200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1201" spans="1:8">
@@ -31618,7 +31618,7 @@
         <v>2913.529112130002</v>
       </c>
       <c r="H1201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1202" spans="1:8">
@@ -31644,7 +31644,7 @@
         <v>2817.082712130002</v>
       </c>
       <c r="H1202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1203" spans="1:8">
@@ -31670,7 +31670,7 @@
         <v>2645.566412130002</v>
       </c>
       <c r="H1203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1204" spans="1:8">
@@ -31696,7 +31696,7 @@
         <v>2645.566412130002</v>
       </c>
       <c r="H1204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1205" spans="1:8">
@@ -31722,7 +31722,7 @@
         <v>2762.426112230002</v>
       </c>
       <c r="H1205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1206" spans="1:8">
@@ -31748,7 +31748,7 @@
         <v>2762.426112230002</v>
       </c>
       <c r="H1206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1207" spans="1:8">
@@ -31774,7 +31774,7 @@
         <v>2747.900112230002</v>
       </c>
       <c r="H1207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1208" spans="1:8">
@@ -31800,7 +31800,7 @@
         <v>2977.404391550002</v>
       </c>
       <c r="H1208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1209" spans="1:8">
@@ -31826,7 +31826,7 @@
         <v>2811.998791550002</v>
       </c>
       <c r="H1209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1210" spans="1:8">
@@ -31852,7 +31852,7 @@
         <v>2697.417991550002</v>
       </c>
       <c r="H1210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1211" spans="1:8">
